--- a/sectors/Sectors.xlsx
+++ b/sectors/Sectors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainrocton/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainrocton/PEA Optimization/Portfolio-Optimization/sectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD0F33B-99C6-4A46-846A-02243D59B351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B19D058-47FF-D94F-9E5F-9E7ECFFB4C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" activeTab="1" xr2:uid="{7DC15B83-B54A-5F43-983B-AA1930749E40}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17440" activeTab="1" xr2:uid="{7DC15B83-B54A-5F43-983B-AA1930749E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sectors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="188">
   <si>
     <t>Company</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Hannover Re</t>
-  </si>
-  <si>
-    <t>Insurance</t>
   </si>
   <si>
     <t>Heidelberg Materials</t>
@@ -1033,7 +1030,7 @@
   <dimension ref="B2:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C3" sqref="C3:C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -1093,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1103,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1143,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1153,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1163,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1203,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1213,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1223,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1233,7 +1230,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1243,7 +1240,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1263,7 +1260,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1283,7 +1280,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1293,7 +1290,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1313,7 +1310,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1343,7 +1340,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1363,7 +1360,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1373,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1393,7 +1390,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1453,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -1473,7 +1470,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
@@ -1499,7 +1496,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -1512,7 +1509,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -1525,7 +1522,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -1551,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -1564,7 +1561,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -1590,7 +1587,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
@@ -1603,7 +1600,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
@@ -1616,7 +1613,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
@@ -1642,7 +1639,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
@@ -1668,7 +1665,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
@@ -1681,7 +1678,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
@@ -1694,7 +1691,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
@@ -1717,10 +1714,10 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>13</v>
@@ -1743,10 +1740,10 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
@@ -1756,10 +1753,10 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
@@ -1782,10 +1779,10 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
@@ -1795,10 +1792,10 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
@@ -1808,10 +1805,10 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
@@ -1821,10 +1818,10 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
@@ -1834,7 +1831,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>6</v>
@@ -1847,7 +1844,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>20</v>
@@ -1860,7 +1857,7 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
@@ -1873,10 +1870,10 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
@@ -1886,7 +1883,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>6</v>
@@ -1899,7 +1896,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -1912,10 +1909,10 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
@@ -1938,10 +1935,10 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
@@ -1951,7 +1948,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>45</v>
@@ -1964,10 +1961,10 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
@@ -1977,16 +1974,16 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>6</v>
@@ -1996,27 +1993,27 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
@@ -2036,7 +2033,7 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>13</v>
@@ -2046,7 +2043,7 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>13</v>
@@ -2056,17 +2053,17 @@
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>13</v>
@@ -2076,37 +2073,37 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
@@ -2116,47 +2113,47 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>13</v>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>6</v>
@@ -2176,17 +2173,17 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>43</v>
@@ -2196,47 +2193,47 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
@@ -2244,25 +2241,25 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>43</v>
@@ -2271,43 +2268,43 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>45</v>
@@ -2316,7 +2313,7 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>6</v>
@@ -2325,7 +2322,7 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>43</v>
@@ -2334,7 +2331,7 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>43</v>
@@ -2343,16 +2340,16 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>45</v>
@@ -2361,16 +2358,16 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>6</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>43</v>
@@ -2388,7 +2385,7 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>13</v>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
@@ -2406,7 +2403,7 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>6</v>
@@ -2415,16 +2412,16 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>45</v>
@@ -2442,7 +2439,7 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>43</v>
@@ -2451,16 +2448,16 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>43</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>43</v>
@@ -2478,43 +2475,43 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>43</v>
@@ -2523,25 +2520,25 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>20</v>
@@ -2550,87 +2547,87 @@
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>6</v>
@@ -2640,27 +2637,27 @@
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>20</v>
@@ -2670,7 +2667,7 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>43</v>
@@ -2680,37 +2677,37 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>20</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>6</v>
@@ -2730,27 +2727,27 @@
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>20</v>
@@ -2760,7 +2757,7 @@
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>6</v>
@@ -2770,7 +2767,7 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>6</v>
@@ -2780,27 +2777,27 @@
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>6</v>
@@ -2810,27 +2807,27 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>6</v>
@@ -2840,17 +2837,17 @@
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>43</v>
@@ -2860,7 +2857,7 @@
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>43</v>
@@ -2873,7 +2870,7 @@
         <v>38</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="1"/>
@@ -2890,17 +2887,17 @@
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>43</v>
@@ -2910,7 +2907,7 @@
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>20</v>
@@ -2920,20 +2917,20 @@
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="1"/>
@@ -3058,10 +3055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFB55FF-5989-A744-A39F-C7EEC004E36C}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3071,7 +3068,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -3086,7 +3083,7 @@
     </row>
     <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -3101,12 +3098,12 @@
     </row>
     <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -3117,11 +3114,6 @@
     <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/sectors/Sectors.xlsx
+++ b/sectors/Sectors.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainrocton/PEA Optimization/Portfolio-Optimization/sectors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainrocton/Last Version/Portfolio-Optimization/sectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B19D058-47FF-D94F-9E5F-9E7ECFFB4C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D27BBE-75F5-6D4D-AC38-693577DCBF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17440" activeTab="1" xr2:uid="{7DC15B83-B54A-5F43-983B-AA1930749E40}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="16860" windowHeight="17340" xr2:uid="{7DC15B83-B54A-5F43-983B-AA1930749E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sectors" sheetId="1" r:id="rId1"/>
     <sheet name="Total" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sectors!$B$2:$C$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sectors!$B$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
   <si>
     <t>Company</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>ABN AMRO</t>
-  </si>
-  <si>
-    <t>Financials</t>
   </si>
   <si>
     <t>Adyen</t>
@@ -615,6 +612,21 @@
   </si>
   <si>
     <t>Unipol</t>
+  </si>
+  <si>
+    <t>Consumer Staples</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Insurance</t>
   </si>
 </sst>
 </file>
@@ -1029,14 +1041,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659E667B-5F36-864D-B329-1A36CCB648F4}">
   <dimension ref="B2:H184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C183"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1049,25 +1062,26 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -1077,37 +1091,37 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -1117,67 +1131,67 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -1187,278 +1201,279 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1467,10 +1482,10 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
@@ -1480,10 +1495,10 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
@@ -1493,10 +1508,10 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -1506,10 +1521,10 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -1519,10 +1534,10 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -1532,10 +1547,10 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -1545,10 +1560,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -1558,10 +1573,10 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -1571,10 +1586,10 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
@@ -1584,10 +1599,10 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
@@ -1597,10 +1612,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
@@ -1610,10 +1625,10 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
@@ -1623,10 +1638,10 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
@@ -1636,10 +1651,10 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
@@ -1649,10 +1664,10 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
@@ -1662,10 +1677,10 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
@@ -1675,10 +1690,10 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
@@ -1688,10 +1703,10 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
@@ -1701,10 +1716,10 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
@@ -1714,10 +1729,10 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
@@ -1727,10 +1742,10 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
@@ -1740,10 +1755,10 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
@@ -1753,10 +1768,10 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
@@ -1766,10 +1781,10 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
@@ -1779,10 +1794,10 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
@@ -1792,10 +1807,10 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
@@ -1805,10 +1820,10 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
@@ -1818,10 +1833,10 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
@@ -1831,10 +1846,10 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
@@ -1844,10 +1859,10 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
@@ -1857,10 +1872,10 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
@@ -1870,10 +1885,10 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
@@ -1883,10 +1898,10 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
@@ -1896,7 +1911,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -1909,10 +1924,10 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
@@ -1922,10 +1937,10 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
@@ -1935,10 +1950,10 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
@@ -1948,10 +1963,10 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
@@ -1961,10 +1976,10 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
@@ -1974,196 +1989,196 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>6</v>
@@ -2173,147 +2188,148 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D110" s="1"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>6</v>
@@ -2322,16 +2338,16 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>43</v>
@@ -2340,178 +2356,178 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>43</v>
@@ -2520,419 +2536,419 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D145" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D146" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D148" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D150" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D154" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D155" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D157" s="2"/>
+      <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D158" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D159" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D160" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D163" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D164" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D168" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D169" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D170" s="2"/>
+      <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D171" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D172" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D174" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D175" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D176" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D177" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D178" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D179" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D180" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D181" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D182" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D183" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
@@ -2940,114 +2956,113 @@
       <c r="E184" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:C183" xr:uid="{659E667B-5F36-864D-B329-1A36CCB648F4}"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="Accor" display="https://en.wikipedia.org/wiki/Accor" xr:uid="{1CAF4ECF-DA68-1C4F-88F8-03CCFF14EC9D}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="Air Liquide" display="https://en.wikipedia.org/wiki/Air_Liquide" xr:uid="{78A20E9A-4AF8-5B49-ACBC-190D2173AC4C}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="Airbus" display="https://en.wikipedia.org/wiki/Airbus" xr:uid="{19BCA83E-EF26-FC49-A450-AA8E7045C5B9}"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="ArcelorMittal" display="https://en.wikipedia.org/wiki/ArcelorMittal" xr:uid="{6216FA0E-E23D-F44A-B0F4-45CE6E4314DF}"/>
-    <hyperlink ref="B7" r:id="rId5" tooltip="Axa" display="https://en.wikipedia.org/wiki/Axa" xr:uid="{7C5D3F3F-1357-8C46-9B32-06CA71C88D8B}"/>
-    <hyperlink ref="B8" r:id="rId6" tooltip="BNP Paribas" display="https://en.wikipedia.org/wiki/BNP_Paribas" xr:uid="{84B52698-B7F9-6F4B-ACD1-E771573AFCB2}"/>
-    <hyperlink ref="B9" r:id="rId7" tooltip="Bouygues" display="https://en.wikipedia.org/wiki/Bouygues" xr:uid="{FA6EB5AA-D7CB-684C-BEDE-DE3B715656D3}"/>
-    <hyperlink ref="B10" r:id="rId8" tooltip="Bureau Veritas" display="https://en.wikipedia.org/wiki/Bureau_Veritas" xr:uid="{FD6A12BF-752C-A549-80FB-ACEB4983605E}"/>
-    <hyperlink ref="B11" r:id="rId9" tooltip="Capgemini" display="https://en.wikipedia.org/wiki/Capgemini" xr:uid="{83F77D20-633D-E646-9354-DA6049BECC53}"/>
-    <hyperlink ref="B12" r:id="rId10" tooltip="Carrefour" display="https://en.wikipedia.org/wiki/Carrefour" xr:uid="{3991C7C3-C959-6A4E-B6F7-2000F1F23446}"/>
-    <hyperlink ref="B13" r:id="rId11" tooltip="Crédit Agricole" display="https://en.wikipedia.org/wiki/Cr%C3%A9dit_Agricole" xr:uid="{DCDDF27B-FD6B-B149-A784-FB4C6FA6DAB8}"/>
-    <hyperlink ref="B14" r:id="rId12" tooltip="Danone" display="https://en.wikipedia.org/wiki/Danone" xr:uid="{E6A45C6C-7004-A74D-B5EB-80A92B15D7F6}"/>
-    <hyperlink ref="B15" r:id="rId13" tooltip="Dassault Systèmes" display="https://en.wikipedia.org/wiki/Dassault_Syst%C3%A8mes" xr:uid="{3A849746-8DFF-9A46-BE74-6A18E4EB68C3}"/>
-    <hyperlink ref="B16" r:id="rId14" tooltip="Edenred" display="https://en.wikipedia.org/wiki/Edenred" xr:uid="{985D4BB2-3B4D-BB4E-974D-ED75067DDB8E}"/>
-    <hyperlink ref="B17" r:id="rId15" tooltip="Engie" display="https://en.wikipedia.org/wiki/Engie" xr:uid="{B2ACA604-D2EA-DF47-96BF-79DB214DE639}"/>
-    <hyperlink ref="B18" r:id="rId16" tooltip="EssilorLuxottica" display="https://en.wikipedia.org/wiki/EssilorLuxottica" xr:uid="{1FF469D3-CEBF-6D46-B483-ACECF882117A}"/>
-    <hyperlink ref="B19" r:id="rId17" tooltip="Eurofins Scientific" display="https://en.wikipedia.org/wiki/Eurofins_Scientific" xr:uid="{CB711290-AD74-494C-A19E-7E15AE1104C8}"/>
-    <hyperlink ref="B20" r:id="rId18" tooltip="Hermès" display="https://en.wikipedia.org/wiki/Herm%C3%A8s" xr:uid="{C7DD8884-2A68-C34A-ADFF-5CCD8C468744}"/>
-    <hyperlink ref="B21" r:id="rId19" tooltip="Kering" display="https://en.wikipedia.org/wiki/Kering" xr:uid="{38B82535-7D5A-C445-A91A-D246E633DF86}"/>
-    <hyperlink ref="B22" r:id="rId20" tooltip="L'Oréal" display="https://en.wikipedia.org/wiki/L%27Or%C3%A9al" xr:uid="{11FDDA85-4354-2749-9B6C-3F8F1E57080F}"/>
-    <hyperlink ref="B23" r:id="rId21" tooltip="Legrand (company)" display="https://en.wikipedia.org/wiki/Legrand_(company)" xr:uid="{40EF0259-1ABF-6A4B-B0EC-9862F028C04B}"/>
-    <hyperlink ref="B24" r:id="rId22" tooltip="LVMH" display="https://en.wikipedia.org/wiki/LVMH" xr:uid="{BDFC23E1-C436-6949-AABC-7C31E25A6401}"/>
-    <hyperlink ref="B25" r:id="rId23" tooltip="Michelin" display="https://en.wikipedia.org/wiki/Michelin" xr:uid="{27175807-9AC0-CC4E-A0B8-C402526B82A9}"/>
-    <hyperlink ref="B26" r:id="rId24" tooltip="Orange SA" display="https://en.wikipedia.org/wiki/Orange_SA" xr:uid="{5A9A511B-ABF6-2B41-9AA3-4885DA1D2C35}"/>
-    <hyperlink ref="B27" r:id="rId25" tooltip="Pernod Ricard" display="https://en.wikipedia.org/wiki/Pernod_Ricard" xr:uid="{C070F680-66A7-E14F-BF68-D81A4F72A18B}"/>
-    <hyperlink ref="B28" r:id="rId26" tooltip="Publicis" display="https://en.wikipedia.org/wiki/Publicis" xr:uid="{36312EA4-0584-4B42-B210-321A01D3679E}"/>
-    <hyperlink ref="B29" r:id="rId27" tooltip="Renault" display="https://en.wikipedia.org/wiki/Renault" xr:uid="{00E049A8-8440-D74F-A8ED-A53300E50331}"/>
-    <hyperlink ref="B30" r:id="rId28" tooltip="Safran" display="https://en.wikipedia.org/wiki/Safran" xr:uid="{833F8AE9-1FBC-2346-ADE9-14BEE25458E0}"/>
-    <hyperlink ref="B31" r:id="rId29" tooltip="Saint-Gobain" display="https://en.wikipedia.org/wiki/Saint-Gobain" xr:uid="{11A4CC23-1DBF-684F-9165-AD1F69F688D1}"/>
-    <hyperlink ref="B32" r:id="rId30" tooltip="Sanofi" display="https://en.wikipedia.org/wiki/Sanofi" xr:uid="{A53C0412-10B4-CC4F-9487-F21BA28DB4AD}"/>
-    <hyperlink ref="B33" r:id="rId31" tooltip="Schneider Electric" display="https://en.wikipedia.org/wiki/Schneider_Electric" xr:uid="{02011E20-6BBF-1344-AEAE-C1679063C9BF}"/>
-    <hyperlink ref="B34" r:id="rId32" tooltip="Société Générale" display="https://en.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_G%C3%A9n%C3%A9rale" xr:uid="{DC72C9D0-5ECA-9A4D-92A4-A5B32EEAC3E1}"/>
-    <hyperlink ref="B35" r:id="rId33" tooltip="Stellantis" display="https://en.wikipedia.org/wiki/Stellantis" xr:uid="{6423DFFF-49F8-0942-9F2B-AA3659475D58}"/>
-    <hyperlink ref="B36" r:id="rId34" tooltip="STMicroelectronics" display="https://en.wikipedia.org/wiki/STMicroelectronics" xr:uid="{3487998D-2425-DB4B-BA79-E1C74A86F0EA}"/>
-    <hyperlink ref="B37" r:id="rId35" tooltip="Teleperformance" display="https://en.wikipedia.org/wiki/Teleperformance" xr:uid="{4B68AA35-E9BD-3242-A1D7-4C3EE3572DD8}"/>
-    <hyperlink ref="B38" r:id="rId36" tooltip="Thales Group" display="https://en.wikipedia.org/wiki/Thales_Group" xr:uid="{E5E1F38D-94FA-CA4D-9E55-51978019486C}"/>
-    <hyperlink ref="B39" r:id="rId37" tooltip="TotalEnergies" display="https://en.wikipedia.org/wiki/TotalEnergies" xr:uid="{F2EE1019-7B85-9540-B14F-54C91486FD27}"/>
-    <hyperlink ref="B40" r:id="rId38" tooltip="Unibail-Rodamco-Westfield" display="https://en.wikipedia.org/wiki/Unibail-Rodamco-Westfield" xr:uid="{797FD936-3B29-2C47-86CA-71D1BC4863F7}"/>
-    <hyperlink ref="B41" r:id="rId39" tooltip="Veolia" display="https://en.wikipedia.org/wiki/Veolia" xr:uid="{D72E7EED-AADC-4546-B590-025DC042F7CD}"/>
-    <hyperlink ref="B42" r:id="rId40" tooltip="Vinci SA" display="https://en.wikipedia.org/wiki/Vinci_SA" xr:uid="{F974D6EB-B323-5549-82F3-39990B7C0020}"/>
-    <hyperlink ref="B84" r:id="rId41" tooltip="ABN AMRO" display="https://en.wikipedia.org/wiki/ABN_AMRO" xr:uid="{918806A1-AAE8-BE48-B839-D4A42D132199}"/>
-    <hyperlink ref="B85" r:id="rId42" tooltip="Adyen" display="https://en.wikipedia.org/wiki/Adyen" xr:uid="{1052FF03-C2CA-9346-87CC-F2174C36FD34}"/>
-    <hyperlink ref="B86" r:id="rId43" tooltip="Aegon N.V." display="https://en.wikipedia.org/wiki/Aegon_N.V." xr:uid="{2D389192-BE3A-CB4B-9CD9-CFE59F943A17}"/>
-    <hyperlink ref="B87" r:id="rId44" tooltip="Ahold Delhaize" display="https://en.wikipedia.org/wiki/Ahold_Delhaize" xr:uid="{D9772F7E-C7ED-0E4C-AED0-06C0C51EBE71}"/>
-    <hyperlink ref="B88" r:id="rId45" tooltip="AkzoNobel" display="https://en.wikipedia.org/wiki/AkzoNobel" xr:uid="{787B53E8-3B63-AF4C-AD7C-10B6847B739D}"/>
-    <hyperlink ref="B89" r:id="rId46" tooltip="ArcelorMittal" display="https://en.wikipedia.org/wiki/ArcelorMittal" xr:uid="{2890B82C-A51E-CE4B-A0BC-3C5EFE0E1525}"/>
-    <hyperlink ref="B90" r:id="rId47" tooltip="ASM International" display="https://en.wikipedia.org/wiki/ASM_International" xr:uid="{20683342-E559-BC4F-9372-091D22F516B0}"/>
-    <hyperlink ref="B91" r:id="rId48" tooltip="ASML Holding" display="https://en.wikipedia.org/wiki/ASML_Holding" xr:uid="{15EDBA5B-FDA2-3345-8F7F-DCA0C220B448}"/>
-    <hyperlink ref="B92" r:id="rId49" tooltip="ASR Nederland" display="https://en.wikipedia.org/wiki/ASR_Nederland" xr:uid="{9ADFD480-B7F8-4B46-85D7-FF2372BB80E9}"/>
-    <hyperlink ref="B93" r:id="rId50" tooltip="Besi" display="https://en.wikipedia.org/wiki/Besi" xr:uid="{D4F302A4-191E-7D4A-AC4C-5164A9236B48}"/>
-    <hyperlink ref="B94" r:id="rId51" tooltip="DSM Firmenich AG (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=DSM_Firmenich_AG&amp;action=edit&amp;redlink=1" xr:uid="{0F98774E-9722-5647-B7FC-CBA1F72496EA}"/>
-    <hyperlink ref="B95" r:id="rId52" tooltip="Exor (company)" display="https://en.wikipedia.org/wiki/Exor_(company)" xr:uid="{E70C5B30-8642-2B44-947B-C12FA5800976}"/>
-    <hyperlink ref="B96" r:id="rId53" tooltip="Heineken International" display="https://en.wikipedia.org/wiki/Heineken_International" xr:uid="{462632CC-F2AA-DA4C-A61E-B0A8B4261D6F}"/>
-    <hyperlink ref="B97" r:id="rId54" tooltip="IMCD (company) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=IMCD_(company)&amp;action=edit&amp;redlink=1" xr:uid="{120CAF87-3AD0-B647-A540-A02F99A9E60A}"/>
-    <hyperlink ref="B98" r:id="rId55" tooltip="ING Group" display="https://en.wikipedia.org/wiki/ING_Group" xr:uid="{5E965E58-AE73-5640-9876-3033B40F5EC6}"/>
-    <hyperlink ref="B99" r:id="rId56" tooltip="KPN" display="https://en.wikipedia.org/wiki/KPN" xr:uid="{FABE73CA-A134-4249-AD9C-3866E81CA15E}"/>
-    <hyperlink ref="B100" r:id="rId57" tooltip="NN Group" display="https://en.wikipedia.org/wiki/NN_Group" xr:uid="{C95F3B64-25DC-1043-B066-52510E401011}"/>
-    <hyperlink ref="B101" r:id="rId58" tooltip="Philips" display="https://en.wikipedia.org/wiki/Philips" xr:uid="{492FC554-7B38-2641-8FC0-D3396EF60235}"/>
-    <hyperlink ref="B102" r:id="rId59" tooltip="Prosus" display="https://en.wikipedia.org/wiki/Prosus" xr:uid="{5755F796-7C3F-6D44-82CF-97F8410B9618}"/>
-    <hyperlink ref="B103" r:id="rId60" tooltip="Randstad NV" display="https://en.wikipedia.org/wiki/Randstad_NV" xr:uid="{FDD5B8DF-228A-C047-B299-77E74AAD8A53}"/>
-    <hyperlink ref="B104" r:id="rId61" tooltip="RELX Group" display="https://en.wikipedia.org/wiki/RELX_Group" xr:uid="{B35A6DB0-C7DC-FC4F-9EA6-DB98E60ADDF8}"/>
-    <hyperlink ref="B105" r:id="rId62" tooltip="Shell plc" display="https://en.wikipedia.org/wiki/Shell_plc" xr:uid="{5AF5FBB0-602E-9C49-9C69-66C98D706926}"/>
-    <hyperlink ref="B106" r:id="rId63" tooltip="Universal Music Group" display="https://en.wikipedia.org/wiki/Universal_Music_Group" xr:uid="{E0059537-ADB9-D949-971D-CEC55617AD0C}"/>
-    <hyperlink ref="B107" r:id="rId64" tooltip="Unilever" display="https://en.wikipedia.org/wiki/Unilever" xr:uid="{D5C831A2-54DF-CD47-9E5B-74751B793523}"/>
-    <hyperlink ref="B108" r:id="rId65" tooltip="Wolters Kluwer" display="https://en.wikipedia.org/wiki/Wolters_Kluwer" xr:uid="{9E9CB260-1CAC-7642-A478-22797F9AA683}"/>
-    <hyperlink ref="B110" r:id="rId66" tooltip="Unicaja" display="https://en.wikipedia.org/wiki/Unicaja" xr:uid="{2DF28075-2AF5-A746-BCB6-32E26EB496A4}"/>
-    <hyperlink ref="B144" r:id="rId67" tooltip="A2A" display="https://en.wikipedia.org/wiki/A2A" xr:uid="{4CF6542A-701D-284A-8646-E5AA7F3FDF90}"/>
-    <hyperlink ref="B145" r:id="rId68" tooltip="Amplifon" display="https://en.wikipedia.org/wiki/Amplifon" xr:uid="{B0B4D033-903F-A848-A152-0685EDAE5C7A}"/>
-    <hyperlink ref="B146" r:id="rId69" tooltip="Azimut Holding" display="https://en.wikipedia.org/wiki/Azimut_Holding" xr:uid="{F518D107-E25A-2344-8022-14EA43E4C622}"/>
-    <hyperlink ref="B147" r:id="rId70" tooltip="Banca Mediolanum" display="https://en.wikipedia.org/wiki/Banca_Mediolanum" xr:uid="{128E3C44-0212-C64F-9DF3-7C2E9EEF955C}"/>
-    <hyperlink ref="B148" r:id="rId71" tooltip="Banca Monte dei Paschi di Siena" display="https://en.wikipedia.org/wiki/Banca_Monte_dei_Paschi_di_Siena" xr:uid="{D28290F7-32C5-B747-A405-F1595699460D}"/>
-    <hyperlink ref="B149" r:id="rId72" tooltip="Banco BPM" display="https://en.wikipedia.org/wiki/Banco_BPM" xr:uid="{DAE584B1-1B50-A044-8EBA-283A7909B70A}"/>
-    <hyperlink ref="B150" r:id="rId73" tooltip="Banca Popolare di Sondrio" display="https://en.wikipedia.org/wiki/Banca_Popolare_di_Sondrio" xr:uid="{495A6DFC-AAC5-A245-A701-C6BF23F3FD48}"/>
-    <hyperlink ref="B151" r:id="rId74" tooltip="BPER Banca" display="https://en.wikipedia.org/wiki/BPER_Banca" xr:uid="{4793CEB7-86EC-3842-BF0A-D99042B31097}"/>
-    <hyperlink ref="B152" r:id="rId75" tooltip="Brunello Cucinelli (brand)" display="https://en.wikipedia.org/wiki/Brunello_Cucinelli_(brand)" xr:uid="{7EA3BB29-2849-EE43-85B2-FFC651FAE0DB}"/>
-    <hyperlink ref="B153" r:id="rId76" tooltip="Buzzi Unicem" display="https://en.wikipedia.org/wiki/Buzzi_Unicem" xr:uid="{3359A4DB-FB59-FE46-8478-44CFCBB1A279}"/>
-    <hyperlink ref="B154" r:id="rId77" tooltip="Davide Campari - Milano" display="https://en.wikipedia.org/wiki/Davide_Campari_-_Milano" xr:uid="{79AC8935-2D35-5C4E-92A6-9CD24615E663}"/>
-    <hyperlink ref="B155" r:id="rId78" tooltip="Diasorin" display="https://en.wikipedia.org/wiki/Diasorin" xr:uid="{FD8C9947-F1E3-814E-8B8F-735F619A15A3}"/>
-    <hyperlink ref="B156" r:id="rId79" tooltip="Enel" display="https://en.wikipedia.org/wiki/Enel" xr:uid="{6008095F-B82E-D347-8B70-BB779F861066}"/>
-    <hyperlink ref="B157" r:id="rId80" tooltip="Eni" display="https://en.wikipedia.org/wiki/Eni" xr:uid="{B35E66D0-C94D-C342-B211-19144DC11D76}"/>
-    <hyperlink ref="B158" r:id="rId81" tooltip="Ferrari" display="https://en.wikipedia.org/wiki/Ferrari" xr:uid="{912FE28A-B428-4A4C-893D-7F02267EC6BD}"/>
-    <hyperlink ref="B159" r:id="rId82" tooltip="FinecoBank" display="https://en.wikipedia.org/wiki/FinecoBank" xr:uid="{07CE2D78-EBCF-E047-B791-20A072C3C54C}"/>
-    <hyperlink ref="B160" r:id="rId83" tooltip="Assicurazioni Generali" display="https://en.wikipedia.org/wiki/Assicurazioni_Generali" xr:uid="{9E733454-EB26-E647-8C15-A2A514AB44F0}"/>
-    <hyperlink ref="B161" r:id="rId84" tooltip="Hera Group" display="https://en.wikipedia.org/wiki/Hera_Group" xr:uid="{5AED33F7-5BA9-E446-9843-3DA17A1DFF64}"/>
-    <hyperlink ref="B162" r:id="rId85" tooltip="Interpump Group" display="https://en.wikipedia.org/wiki/Interpump_Group" xr:uid="{4483A075-C343-9B47-B4D0-6AEE9662C433}"/>
-    <hyperlink ref="B163" r:id="rId86" tooltip="Intesa Sanpaolo" display="https://en.wikipedia.org/wiki/Intesa_Sanpaolo" xr:uid="{D078CC85-800D-9647-8BDA-AFA51CA1DAEB}"/>
-    <hyperlink ref="B164" r:id="rId87" tooltip="Infrastrutture Wireless Italiane" display="https://en.wikipedia.org/wiki/Infrastrutture_Wireless_Italiane" xr:uid="{60154A53-3D14-BE43-8781-11FE1066E3A4}"/>
-    <hyperlink ref="B165" r:id="rId88" tooltip="Italgas" display="https://en.wikipedia.org/wiki/Italgas" xr:uid="{A6469A49-9304-5A4C-8BBB-C203D548ED2B}"/>
-    <hyperlink ref="B166" r:id="rId89" tooltip="Iveco Group" display="https://en.wikipedia.org/wiki/Iveco_Group" xr:uid="{331BD35B-5780-8145-99E2-16EEB80C6E6C}"/>
-    <hyperlink ref="B167" r:id="rId90" tooltip="Leonardo S.p.A." display="https://en.wikipedia.org/wiki/Leonardo_S.p.A." xr:uid="{F0473F23-E7D6-934C-A750-03E6D0861BD7}"/>
-    <hyperlink ref="B168" r:id="rId91" tooltip="Mediobanca" display="https://en.wikipedia.org/wiki/Mediobanca" xr:uid="{271FDEC6-C15E-0C42-B7CB-ED93136DE166}"/>
-    <hyperlink ref="B169" r:id="rId92" tooltip="Moncler" display="https://en.wikipedia.org/wiki/Moncler" xr:uid="{59BF7698-887C-CE44-8439-E92D2D9D245E}"/>
-    <hyperlink ref="B170" r:id="rId93" tooltip="Nexi" display="https://en.wikipedia.org/wiki/Nexi" xr:uid="{B2F2A1AF-F7A8-234D-BA8F-158AFB486FD8}"/>
-    <hyperlink ref="B171" r:id="rId94" tooltip="Pirelli" display="https://en.wikipedia.org/wiki/Pirelli" xr:uid="{1E965B25-FE82-1A4C-B2E8-90AF32BEF435}"/>
-    <hyperlink ref="B172" r:id="rId95" tooltip="Poste italiane" display="https://en.wikipedia.org/wiki/Poste_italiane" xr:uid="{E82C25C1-F690-C643-9B33-E9763B1BD5AF}"/>
-    <hyperlink ref="B173" r:id="rId96" tooltip="Prysmian" display="https://en.wikipedia.org/wiki/Prysmian" xr:uid="{AAA38C7F-2E92-714E-A5C6-0C78D41CDE60}"/>
-    <hyperlink ref="B174" r:id="rId97" tooltip="Recordati (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Recordati&amp;action=edit&amp;redlink=1" xr:uid="{A95D93A2-FFA8-CE4C-B29A-B8FF74166784}"/>
-    <hyperlink ref="B175" r:id="rId98" tooltip="Saipem" display="https://en.wikipedia.org/wiki/Saipem" xr:uid="{35B8398B-0B73-8940-A4E2-F803D661F79F}"/>
-    <hyperlink ref="B176" r:id="rId99" tooltip="Snam" display="https://en.wikipedia.org/wiki/Snam" xr:uid="{64E70758-BB4D-204C-9AFC-303ED58DF2A4}"/>
-    <hyperlink ref="B177" r:id="rId100" tooltip="Stellantis" display="https://en.wikipedia.org/wiki/Stellantis" xr:uid="{1D753657-985A-F24D-AB2F-4F99B21F457F}"/>
-    <hyperlink ref="B178" r:id="rId101" tooltip="STMicroelectronics" display="https://en.wikipedia.org/wiki/STMicroelectronics" xr:uid="{B68E7F85-8F82-474E-86FD-94A0A24D1F92}"/>
-    <hyperlink ref="B179" r:id="rId102" tooltip="Telecom Italia" display="https://en.wikipedia.org/wiki/Telecom_Italia" xr:uid="{8318638B-89E5-BF45-A18E-DE313E55060C}"/>
-    <hyperlink ref="B180" r:id="rId103" tooltip="Tenaris" display="https://en.wikipedia.org/wiki/Tenaris" xr:uid="{323EA2F0-EF1A-CA4A-B381-D01A8BBBA790}"/>
-    <hyperlink ref="B181" r:id="rId104" tooltip="Terna - Rete Elettrica Nazionale" display="https://en.wikipedia.org/wiki/Terna_-_Rete_Elettrica_Nazionale" xr:uid="{A9A4C0D9-B8FC-8E48-825E-68DAD3188F27}"/>
-    <hyperlink ref="B182" r:id="rId105" tooltip="UniCredit" display="https://en.wikipedia.org/wiki/UniCredit" xr:uid="{FDB594EF-D8BA-5E47-A777-87D4254BEF23}"/>
-    <hyperlink ref="B183" r:id="rId106" tooltip="Unipol" display="https://en.wikipedia.org/wiki/Unipol" xr:uid="{07406C29-B222-D948-9AED-114033BEE4D1}"/>
+    <hyperlink ref="B7" r:id="rId1" tooltip="Accor" display="https://en.wikipedia.org/wiki/Accor" xr:uid="{1CAF4ECF-DA68-1C4F-88F8-03CCFF14EC9D}"/>
+    <hyperlink ref="B15" r:id="rId2" tooltip="Air Liquide" display="https://en.wikipedia.org/wiki/Air_Liquide" xr:uid="{78A20E9A-4AF8-5B49-ACBC-190D2173AC4C}"/>
+    <hyperlink ref="B16" r:id="rId3" tooltip="Airbus" display="https://en.wikipedia.org/wiki/Airbus" xr:uid="{19BCA83E-EF26-FC49-A450-AA8E7045C5B9}"/>
+    <hyperlink ref="B22" r:id="rId4" tooltip="ArcelorMittal" display="https://en.wikipedia.org/wiki/ArcelorMittal" xr:uid="{6216FA0E-E23D-F44A-B0F4-45CE6E4314DF}"/>
+    <hyperlink ref="B28" r:id="rId5" tooltip="Axa" display="https://en.wikipedia.org/wiki/Axa" xr:uid="{7C5D3F3F-1357-8C46-9B32-06CA71C88D8B}"/>
+    <hyperlink ref="B42" r:id="rId6" tooltip="BNP Paribas" display="https://en.wikipedia.org/wiki/BNP_Paribas" xr:uid="{84B52698-B7F9-6F4B-ACD1-E771573AFCB2}"/>
+    <hyperlink ref="B43" r:id="rId7" tooltip="Bouygues" display="https://en.wikipedia.org/wiki/Bouygues" xr:uid="{FA6EB5AA-D7CB-684C-BEDE-DE3B715656D3}"/>
+    <hyperlink ref="B47" r:id="rId8" tooltip="Bureau Veritas" display="https://en.wikipedia.org/wiki/Bureau_Veritas" xr:uid="{FD6A12BF-752C-A549-80FB-ACEB4983605E}"/>
+    <hyperlink ref="B51" r:id="rId9" tooltip="Capgemini" display="https://en.wikipedia.org/wiki/Capgemini" xr:uid="{83F77D20-633D-E646-9354-DA6049BECC53}"/>
+    <hyperlink ref="B52" r:id="rId10" tooltip="Carrefour" display="https://en.wikipedia.org/wiki/Carrefour" xr:uid="{3991C7C3-C959-6A4E-B6F7-2000F1F23446}"/>
+    <hyperlink ref="B57" r:id="rId11" tooltip="Crédit Agricole" display="https://en.wikipedia.org/wiki/Cr%C3%A9dit_Agricole" xr:uid="{DCDDF27B-FD6B-B149-A784-FB4C6FA6DAB8}"/>
+    <hyperlink ref="B59" r:id="rId12" tooltip="Danone" display="https://en.wikipedia.org/wiki/Danone" xr:uid="{E6A45C6C-7004-A74D-B5EB-80A92B15D7F6}"/>
+    <hyperlink ref="B60" r:id="rId13" tooltip="Dassault Systèmes" display="https://en.wikipedia.org/wiki/Dassault_Syst%C3%A8mes" xr:uid="{3A849746-8DFF-9A46-BE74-6A18E4EB68C3}"/>
+    <hyperlink ref="B68" r:id="rId14" tooltip="Edenred" display="https://en.wikipedia.org/wiki/Edenred" xr:uid="{985D4BB2-3B4D-BB4E-974D-ED75067DDB8E}"/>
+    <hyperlink ref="B72" r:id="rId15" tooltip="Engie" display="https://en.wikipedia.org/wiki/Engie" xr:uid="{B2ACA604-D2EA-DF47-96BF-79DB214DE639}"/>
+    <hyperlink ref="B74" r:id="rId16" tooltip="EssilorLuxottica" display="https://en.wikipedia.org/wiki/EssilorLuxottica" xr:uid="{1FF469D3-CEBF-6D46-B483-ACECF882117A}"/>
+    <hyperlink ref="B75" r:id="rId17" tooltip="Eurofins Scientific" display="https://en.wikipedia.org/wiki/Eurofins_Scientific" xr:uid="{CB711290-AD74-494C-A19E-7E15AE1104C8}"/>
+    <hyperlink ref="B90" r:id="rId18" tooltip="Hermès" display="https://en.wikipedia.org/wiki/Herm%C3%A8s" xr:uid="{C7DD8884-2A68-C34A-ADFF-5CCD8C468744}"/>
+    <hyperlink ref="B104" r:id="rId19" tooltip="Kering" display="https://en.wikipedia.org/wiki/Kering" xr:uid="{38B82535-7D5A-C445-A91A-D246E633DF86}"/>
+    <hyperlink ref="B106" r:id="rId20" tooltip="L'Oréal" display="https://en.wikipedia.org/wiki/L%27Or%C3%A9al" xr:uid="{11FDDA85-4354-2749-9B6C-3F8F1E57080F}"/>
+    <hyperlink ref="B108" r:id="rId21" tooltip="Legrand (company)" display="https://en.wikipedia.org/wiki/Legrand_(company)" xr:uid="{40EF0259-1ABF-6A4B-B0EC-9862F028C04B}"/>
+    <hyperlink ref="B111" r:id="rId22" tooltip="LVMH" display="https://en.wikipedia.org/wiki/LVMH" xr:uid="{BDFC23E1-C436-6949-AABC-7C31E25A6401}"/>
+    <hyperlink ref="B117" r:id="rId23" tooltip="Michelin" display="https://en.wikipedia.org/wiki/Michelin" xr:uid="{27175807-9AC0-CC4E-A0B8-C402526B82A9}"/>
+    <hyperlink ref="B124" r:id="rId24" tooltip="Orange SA" display="https://en.wikipedia.org/wiki/Orange_SA" xr:uid="{5A9A511B-ABF6-2B41-9AA3-4885DA1D2C35}"/>
+    <hyperlink ref="B125" r:id="rId25" tooltip="Pernod Ricard" display="https://en.wikipedia.org/wiki/Pernod_Ricard" xr:uid="{C070F680-66A7-E14F-BF68-D81A4F72A18B}"/>
+    <hyperlink ref="B133" r:id="rId26" tooltip="Publicis" display="https://en.wikipedia.org/wiki/Publicis" xr:uid="{36312EA4-0584-4B42-B210-321A01D3679E}"/>
+    <hyperlink ref="B140" r:id="rId27" tooltip="Renault" display="https://en.wikipedia.org/wiki/Renault" xr:uid="{00E049A8-8440-D74F-A8ED-A53300E50331}"/>
+    <hyperlink ref="B145" r:id="rId28" tooltip="Safran" display="https://en.wikipedia.org/wiki/Safran" xr:uid="{833F8AE9-1FBC-2346-ADE9-14BEE25458E0}"/>
+    <hyperlink ref="B146" r:id="rId29" tooltip="Saint-Gobain" display="https://en.wikipedia.org/wiki/Saint-Gobain" xr:uid="{11A4CC23-1DBF-684F-9165-AD1F69F688D1}"/>
+    <hyperlink ref="B148" r:id="rId30" tooltip="Sanofi" display="https://en.wikipedia.org/wiki/Sanofi" xr:uid="{A53C0412-10B4-CC4F-9487-F21BA28DB4AD}"/>
+    <hyperlink ref="B152" r:id="rId31" tooltip="Schneider Electric" display="https://en.wikipedia.org/wiki/Schneider_Electric" xr:uid="{02011E20-6BBF-1344-AEAE-C1679063C9BF}"/>
+    <hyperlink ref="B158" r:id="rId32" tooltip="Société Générale" display="https://en.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_G%C3%A9n%C3%A9rale" xr:uid="{DC72C9D0-5ECA-9A4D-92A4-A5B32EEAC3E1}"/>
+    <hyperlink ref="B160" r:id="rId33" tooltip="Stellantis" display="https://en.wikipedia.org/wiki/Stellantis" xr:uid="{6423DFFF-49F8-0942-9F2B-AA3659475D58}"/>
+    <hyperlink ref="B162" r:id="rId34" tooltip="STMicroelectronics" display="https://en.wikipedia.org/wiki/STMicroelectronics" xr:uid="{3487998D-2425-DB4B-BA79-E1C74A86F0EA}"/>
+    <hyperlink ref="B167" r:id="rId35" tooltip="Teleperformance" display="https://en.wikipedia.org/wiki/Teleperformance" xr:uid="{4B68AA35-E9BD-3242-A1D7-4C3EE3572DD8}"/>
+    <hyperlink ref="B170" r:id="rId36" tooltip="Thales Group" display="https://en.wikipedia.org/wiki/Thales_Group" xr:uid="{E5E1F38D-94FA-CA4D-9E55-51978019486C}"/>
+    <hyperlink ref="B171" r:id="rId37" tooltip="TotalEnergies" display="https://en.wikipedia.org/wiki/TotalEnergies" xr:uid="{F2EE1019-7B85-9540-B14F-54C91486FD27}"/>
+    <hyperlink ref="B172" r:id="rId38" tooltip="Unibail-Rodamco-Westfield" display="https://en.wikipedia.org/wiki/Unibail-Rodamco-Westfield" xr:uid="{797FD936-3B29-2C47-86CA-71D1BC4863F7}"/>
+    <hyperlink ref="B178" r:id="rId39" tooltip="Veolia" display="https://en.wikipedia.org/wiki/Veolia" xr:uid="{D72E7EED-AADC-4546-B590-025DC042F7CD}"/>
+    <hyperlink ref="B179" r:id="rId40" tooltip="Vinci SA" display="https://en.wikipedia.org/wiki/Vinci_SA" xr:uid="{F974D6EB-B323-5549-82F3-39990B7C0020}"/>
+    <hyperlink ref="B4" r:id="rId41" tooltip="ABN AMRO" display="https://en.wikipedia.org/wiki/ABN_AMRO" xr:uid="{918806A1-AAE8-BE48-B839-D4A42D132199}"/>
+    <hyperlink ref="B11" r:id="rId42" tooltip="Adyen" display="https://en.wikipedia.org/wiki/Adyen" xr:uid="{1052FF03-C2CA-9346-87CC-F2174C36FD34}"/>
+    <hyperlink ref="B12" r:id="rId43" tooltip="Aegon N.V." display="https://en.wikipedia.org/wiki/Aegon_N.V." xr:uid="{2D389192-BE3A-CB4B-9CD9-CFE59F943A17}"/>
+    <hyperlink ref="B14" r:id="rId44" tooltip="Ahold Delhaize" display="https://en.wikipedia.org/wiki/Ahold_Delhaize" xr:uid="{D9772F7E-C7ED-0E4C-AED0-06C0C51EBE71}"/>
+    <hyperlink ref="B18" r:id="rId45" tooltip="AkzoNobel" display="https://en.wikipedia.org/wiki/AkzoNobel" xr:uid="{787B53E8-3B63-AF4C-AD7C-10B6847B739D}"/>
+    <hyperlink ref="B23" r:id="rId46" tooltip="ArcelorMittal" display="https://en.wikipedia.org/wiki/ArcelorMittal" xr:uid="{2890B82C-A51E-CE4B-A0BC-3C5EFE0E1525}"/>
+    <hyperlink ref="B25" r:id="rId47" tooltip="ASM International" display="https://en.wikipedia.org/wiki/ASM_International" xr:uid="{20683342-E559-BC4F-9372-091D22F516B0}"/>
+    <hyperlink ref="B26" r:id="rId48" tooltip="ASML Holding" display="https://en.wikipedia.org/wiki/ASML_Holding" xr:uid="{15EDBA5B-FDA2-3345-8F7F-DCA0C220B448}"/>
+    <hyperlink ref="B27" r:id="rId49" tooltip="ASR Nederland" display="https://en.wikipedia.org/wiki/ASR_Nederland" xr:uid="{9ADFD480-B7F8-4B46-85D7-FF2372BB80E9}"/>
+    <hyperlink ref="B39" r:id="rId50" tooltip="Besi" display="https://en.wikipedia.org/wiki/Besi" xr:uid="{D4F302A4-191E-7D4A-AC4C-5164A9236B48}"/>
+    <hyperlink ref="B66" r:id="rId51" tooltip="DSM Firmenich AG (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=DSM_Firmenich_AG&amp;action=edit&amp;redlink=1" xr:uid="{0F98774E-9722-5647-B7FC-CBA1F72496EA}"/>
+    <hyperlink ref="B76" r:id="rId52" tooltip="Exor (company)" display="https://en.wikipedia.org/wiki/Exor_(company)" xr:uid="{E70C5B30-8642-2B44-947B-C12FA5800976}"/>
+    <hyperlink ref="B87" r:id="rId53" tooltip="Heineken International" display="https://en.wikipedia.org/wiki/Heineken_International" xr:uid="{462632CC-F2AA-DA4C-A61E-B0A8B4261D6F}"/>
+    <hyperlink ref="B92" r:id="rId54" tooltip="IMCD (company) (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=IMCD_(company)&amp;action=edit&amp;redlink=1" xr:uid="{120CAF87-3AD0-B647-A540-A02F99A9E60A}"/>
+    <hyperlink ref="B96" r:id="rId55" tooltip="ING Group" display="https://en.wikipedia.org/wiki/ING_Group" xr:uid="{5E965E58-AE73-5640-9876-3033B40F5EC6}"/>
+    <hyperlink ref="B105" r:id="rId56" tooltip="KPN" display="https://en.wikipedia.org/wiki/KPN" xr:uid="{FABE73CA-A134-4249-AD9C-3866E81CA15E}"/>
+    <hyperlink ref="B123" r:id="rId57" tooltip="NN Group" display="https://en.wikipedia.org/wiki/NN_Group" xr:uid="{C95F3B64-25DC-1043-B066-52510E401011}"/>
+    <hyperlink ref="B126" r:id="rId58" tooltip="Philips" display="https://en.wikipedia.org/wiki/Philips" xr:uid="{492FC554-7B38-2641-8FC0-D3396EF60235}"/>
+    <hyperlink ref="B131" r:id="rId59" tooltip="Prosus" display="https://en.wikipedia.org/wiki/Prosus" xr:uid="{5755F796-7C3F-6D44-82CF-97F8410B9618}"/>
+    <hyperlink ref="B136" r:id="rId60" tooltip="Randstad NV" display="https://en.wikipedia.org/wiki/Randstad_NV" xr:uid="{FDD5B8DF-228A-C047-B299-77E74AAD8A53}"/>
+    <hyperlink ref="B139" r:id="rId61" tooltip="RELX Group" display="https://en.wikipedia.org/wiki/RELX_Group" xr:uid="{B35A6DB0-C7DC-FC4F-9EA6-DB98E60ADDF8}"/>
+    <hyperlink ref="B153" r:id="rId62" tooltip="Shell plc" display="https://en.wikipedia.org/wiki/Shell_plc" xr:uid="{5AF5FBB0-602E-9C49-9C69-66C98D706926}"/>
+    <hyperlink ref="B177" r:id="rId63" tooltip="Universal Music Group" display="https://en.wikipedia.org/wiki/Universal_Music_Group" xr:uid="{E0059537-ADB9-D949-971D-CEC55617AD0C}"/>
+    <hyperlink ref="B175" r:id="rId64" tooltip="Unilever" display="https://en.wikipedia.org/wiki/Unilever" xr:uid="{D5C831A2-54DF-CD47-9E5B-74751B793523}"/>
+    <hyperlink ref="B182" r:id="rId65" tooltip="Wolters Kluwer" display="https://en.wikipedia.org/wiki/Wolters_Kluwer" xr:uid="{9E9CB260-1CAC-7642-A478-22797F9AA683}"/>
+    <hyperlink ref="B8" r:id="rId66" tooltip="Unicaja" display="https://en.wikipedia.org/wiki/Unicaja" xr:uid="{2DF28075-2AF5-A746-BCB6-32E26EB496A4}"/>
+    <hyperlink ref="B3" r:id="rId67" tooltip="A2A" display="https://en.wikipedia.org/wiki/A2A" xr:uid="{4CF6542A-701D-284A-8646-E5AA7F3FDF90}"/>
+    <hyperlink ref="B21" r:id="rId68" tooltip="Amplifon" display="https://en.wikipedia.org/wiki/Amplifon" xr:uid="{B0B4D033-903F-A848-A152-0685EDAE5C7A}"/>
+    <hyperlink ref="B29" r:id="rId69" tooltip="Azimut Holding" display="https://en.wikipedia.org/wiki/Azimut_Holding" xr:uid="{F518D107-E25A-2344-8022-14EA43E4C622}"/>
+    <hyperlink ref="B30" r:id="rId70" tooltip="Banca Mediolanum" display="https://en.wikipedia.org/wiki/Banca_Mediolanum" xr:uid="{128E3C44-0212-C64F-9DF3-7C2E9EEF955C}"/>
+    <hyperlink ref="B31" r:id="rId71" tooltip="Banca Monte dei Paschi di Siena" display="https://en.wikipedia.org/wiki/Banca_Monte_dei_Paschi_di_Siena" xr:uid="{D28290F7-32C5-B747-A405-F1595699460D}"/>
+    <hyperlink ref="B33" r:id="rId72" tooltip="Banco BPM" display="https://en.wikipedia.org/wiki/Banco_BPM" xr:uid="{DAE584B1-1B50-A044-8EBA-283A7909B70A}"/>
+    <hyperlink ref="B32" r:id="rId73" tooltip="Banca Popolare di Sondrio" display="https://en.wikipedia.org/wiki/Banca_Popolare_di_Sondrio" xr:uid="{495A6DFC-AAC5-A245-A701-C6BF23F3FD48}"/>
+    <hyperlink ref="B44" r:id="rId74" tooltip="BPER Banca" display="https://en.wikipedia.org/wiki/BPER_Banca" xr:uid="{4793CEB7-86EC-3842-BF0A-D99042B31097}"/>
+    <hyperlink ref="B46" r:id="rId75" tooltip="Brunello Cucinelli (brand)" display="https://en.wikipedia.org/wiki/Brunello_Cucinelli_(brand)" xr:uid="{7EA3BB29-2849-EE43-85B2-FFC651FAE0DB}"/>
+    <hyperlink ref="B48" r:id="rId76" tooltip="Buzzi Unicem" display="https://en.wikipedia.org/wiki/Buzzi_Unicem" xr:uid="{3359A4DB-FB59-FE46-8478-44CFCBB1A279}"/>
+    <hyperlink ref="B50" r:id="rId77" tooltip="Davide Campari - Milano" display="https://en.wikipedia.org/wiki/Davide_Campari_-_Milano" xr:uid="{79AC8935-2D35-5C4E-92A6-9CD24615E663}"/>
+    <hyperlink ref="B65" r:id="rId78" tooltip="Diasorin" display="https://en.wikipedia.org/wiki/Diasorin" xr:uid="{FD8C9947-F1E3-814E-8B8F-735F619A15A3}"/>
+    <hyperlink ref="B71" r:id="rId79" tooltip="Enel" display="https://en.wikipedia.org/wiki/Enel" xr:uid="{6008095F-B82E-D347-8B70-BB779F861066}"/>
+    <hyperlink ref="B73" r:id="rId80" tooltip="Eni" display="https://en.wikipedia.org/wiki/Eni" xr:uid="{B35E66D0-C94D-C342-B211-19144DC11D76}"/>
+    <hyperlink ref="B77" r:id="rId81" tooltip="Ferrari" display="https://en.wikipedia.org/wiki/Ferrari" xr:uid="{912FE28A-B428-4A4C-893D-7F02267EC6BD}"/>
+    <hyperlink ref="B79" r:id="rId82" tooltip="FinecoBank" display="https://en.wikipedia.org/wiki/FinecoBank" xr:uid="{07CE2D78-EBCF-E047-B791-20A072C3C54C}"/>
+    <hyperlink ref="B83" r:id="rId83" tooltip="Assicurazioni Generali" display="https://en.wikipedia.org/wiki/Assicurazioni_Generali" xr:uid="{9E733454-EB26-E647-8C15-A2A514AB44F0}"/>
+    <hyperlink ref="B89" r:id="rId84" tooltip="Hera Group" display="https://en.wikipedia.org/wiki/Hera_Group" xr:uid="{5AED33F7-5BA9-E446-9843-3DA17A1DFF64}"/>
+    <hyperlink ref="B99" r:id="rId85" tooltip="Interpump Group" display="https://en.wikipedia.org/wiki/Interpump_Group" xr:uid="{4483A075-C343-9B47-B4D0-6AEE9662C433}"/>
+    <hyperlink ref="B100" r:id="rId86" tooltip="Intesa Sanpaolo" display="https://en.wikipedia.org/wiki/Intesa_Sanpaolo" xr:uid="{D078CC85-800D-9647-8BDA-AFA51CA1DAEB}"/>
+    <hyperlink ref="B101" r:id="rId87" tooltip="Infrastrutture Wireless Italiane" display="https://en.wikipedia.org/wiki/Infrastrutture_Wireless_Italiane" xr:uid="{60154A53-3D14-BE43-8781-11FE1066E3A4}"/>
+    <hyperlink ref="B102" r:id="rId88" tooltip="Italgas" display="https://en.wikipedia.org/wiki/Italgas" xr:uid="{A6469A49-9304-5A4C-8BBB-C203D548ED2B}"/>
+    <hyperlink ref="B103" r:id="rId89" tooltip="Iveco Group" display="https://en.wikipedia.org/wiki/Iveco_Group" xr:uid="{331BD35B-5780-8145-99E2-16EEB80C6E6C}"/>
+    <hyperlink ref="B109" r:id="rId90" tooltip="Leonardo S.p.A." display="https://en.wikipedia.org/wiki/Leonardo_S.p.A." xr:uid="{F0473F23-E7D6-934C-A750-03E6D0861BD7}"/>
+    <hyperlink ref="B113" r:id="rId91" tooltip="Mediobanca" display="https://en.wikipedia.org/wiki/Mediobanca" xr:uid="{271FDEC6-C15E-0C42-B7CB-ED93136DE166}"/>
+    <hyperlink ref="B118" r:id="rId92" tooltip="Moncler" display="https://en.wikipedia.org/wiki/Moncler" xr:uid="{59BF7698-887C-CE44-8439-E92D2D9D245E}"/>
+    <hyperlink ref="B122" r:id="rId93" tooltip="Nexi" display="https://en.wikipedia.org/wiki/Nexi" xr:uid="{B2F2A1AF-F7A8-234D-BA8F-158AFB486FD8}"/>
+    <hyperlink ref="B127" r:id="rId94" tooltip="Pirelli" display="https://en.wikipedia.org/wiki/Pirelli" xr:uid="{1E965B25-FE82-1A4C-B2E8-90AF32BEF435}"/>
+    <hyperlink ref="B130" r:id="rId95" tooltip="Poste italiane" display="https://en.wikipedia.org/wiki/Poste_italiane" xr:uid="{E82C25C1-F690-C643-9B33-E9763B1BD5AF}"/>
+    <hyperlink ref="B132" r:id="rId96" tooltip="Prysmian" display="https://en.wikipedia.org/wiki/Prysmian" xr:uid="{AAA38C7F-2E92-714E-A5C6-0C78D41CDE60}"/>
+    <hyperlink ref="B137" r:id="rId97" tooltip="Recordati (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Recordati&amp;action=edit&amp;redlink=1" xr:uid="{A95D93A2-FFA8-CE4C-B29A-B8FF74166784}"/>
+    <hyperlink ref="B147" r:id="rId98" tooltip="Saipem" display="https://en.wikipedia.org/wiki/Saipem" xr:uid="{35B8398B-0B73-8940-A4E2-F803D661F79F}"/>
+    <hyperlink ref="B157" r:id="rId99" tooltip="Snam" display="https://en.wikipedia.org/wiki/Snam" xr:uid="{64E70758-BB4D-204C-9AFC-303ED58DF2A4}"/>
+    <hyperlink ref="B161" r:id="rId100" tooltip="Stellantis" display="https://en.wikipedia.org/wiki/Stellantis" xr:uid="{1D753657-985A-F24D-AB2F-4F99B21F457F}"/>
+    <hyperlink ref="B163" r:id="rId101" tooltip="STMicroelectronics" display="https://en.wikipedia.org/wiki/STMicroelectronics" xr:uid="{B68E7F85-8F82-474E-86FD-94A0A24D1F92}"/>
+    <hyperlink ref="B165" r:id="rId102" tooltip="Telecom Italia" display="https://en.wikipedia.org/wiki/Telecom_Italia" xr:uid="{8318638B-89E5-BF45-A18E-DE313E55060C}"/>
+    <hyperlink ref="B168" r:id="rId103" tooltip="Tenaris" display="https://en.wikipedia.org/wiki/Tenaris" xr:uid="{323EA2F0-EF1A-CA4A-B381-D01A8BBBA790}"/>
+    <hyperlink ref="B169" r:id="rId104" tooltip="Terna - Rete Elettrica Nazionale" display="https://en.wikipedia.org/wiki/Terna_-_Rete_Elettrica_Nazionale" xr:uid="{A9A4C0D9-B8FC-8E48-825E-68DAD3188F27}"/>
+    <hyperlink ref="B174" r:id="rId105" tooltip="UniCredit" display="https://en.wikipedia.org/wiki/UniCredit" xr:uid="{FDB594EF-D8BA-5E47-A777-87D4254BEF23}"/>
+    <hyperlink ref="B176" r:id="rId106" tooltip="Unipol" display="https://en.wikipedia.org/wiki/Unipol" xr:uid="{07406C29-B222-D948-9AED-114033BEE4D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3055,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFB55FF-5989-A744-A39F-C7EEC004E36C}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3068,7 +3083,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -3083,12 +3098,12 @@
     </row>
     <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -3098,12 +3113,12 @@
     </row>
     <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -3115,6 +3130,29 @@
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
